--- a/MMORPG-Demo/MMOServer/src/main/resources/static/itemsInfo.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/itemsInfo.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420C9EE1-7B0A-4798-8ABB-1CBB401B6608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC84B107-B8F4-49AF-9CAD-212BF65FDC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +94,6 @@
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,12 +251,76 @@
     <t>buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>双手武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemInfoProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":4,"value":400},{"id":4,"value":75}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":4,"value":500},{"id":4,"value":90}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":3,"value":240},{"id":5,"value":50},{"id":9,"value":300},{"id":6,"value":30}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":3,"value":350},{"id":5,"value":58},{"id":9,"value":332},{"id":6,"value":37}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":3,"value":260},{"id":5,"value":45},{"id":9,"value":332},{"id":6,"value":35}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":3,"value":400},{"id":5,"value":33},{"id":9,"value":322},{"id":6,"value":22}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":3,"value":200},{"id":5,"value":33},{"id":9,"value":200},{"id":6,"value":20}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":6,"value"50}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":4,"value":200}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用金币交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +366,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,22 +701,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="67" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,25 +731,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -686,23 +765,32 @@
       <c r="C2" s="1">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4">
+        <v>300</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -712,286 +800,413 @@
       <c r="C3" s="1">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4">
+        <v>500</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>500</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <v>500</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
         <v>120</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <v>600</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
         <v>120</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4">
-        <v>105</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>600</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="4">
+        <v>600</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
         <v>150</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
-        <v>107</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>700</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
         <v>150</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>31</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>999</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
         <v>150</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
-        <v>645</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>700</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
         <v>150</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
         <v>-1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>-1</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
         <v>-1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>-1</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
